--- a/biology/Histoire de la zoologie et de la botanique/Felix_Bryk/Felix_Bryk.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Felix_Bryk/Felix_Bryk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Felix Bryk est un anthropologue, un entomologiste et un écrivain suédois, né le 21 janvier 1882 à Vienne et mort le 13 janvier 1957 à Stockholm.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se passionne dès son plus jeune âge pour les insectes. Son père, Adolf Bryk, est un juriste qui pense que ce n'est qu'un passe-temps qui disparaîtra avec le temps. Felix Bryk fait des études classique et s'oriente vers une carrière de peintre. Il séjourne à Paris et à Florence où il rencontre Aino Makinen avec qui il se marie en 1909 à Myllykylä. En parallèle à ses études artistiques, il continue d'étudier les insectes et plus spécialement aux lépidoptères.
 Bryk vient en Suède durant la Première Guerre mondiale. Il fait des expositions de ses œuvres et publie des articles entomologiques et sur la vie de Linné. Il fait notamment paraître des textes inconnus de Carl von Linné (1707-1778) comme les mémoires de Linné, Linné's Minnesbok (Stockholm, 1919), H.A. Müller's Delineatio Regni Animalium (Stockholm, 1920), Linné's Adonis Stenbrohultensis (Stockholm, 1920), Linné's Randaufzeichnungen zu Maria Sibylla Merianins Erucarum ortus (Stuttgart, 1920) ainsi qu'un analyse de bibliothèque de Linné (Stockholm, 1923). Il s'intéresse aux macrolépidoptères et fait paraître Grundzüge der Sphragidologie (1918) et Bibliotheca Sphragidologica (1920)
